--- a/Assets/Docs/Ships.xlsx
+++ b/Assets/Docs/Ships.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!!WORK\space\Space\Assets\Resources\JSON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!!WORK\space\Space\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E3F5C5-1514-4590-B656-89DB06B2AE00}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135ADE21-A67F-4674-BFB1-0E353865E060}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{1B710372-9CEA-4239-87F7-9DE52B7732A8}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>three</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>id : Integer</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>D:\!!WORK\space\Space\Assets\Resources\JSON\ships.json</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,21 +441,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,13 +463,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
